--- a/ocr_test/1226/태국어_전처리_with_result_updated.xlsx
+++ b/ocr_test/1226/태국어_전처리_with_result_updated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C328"/>
+  <dimension ref="A1:C330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3161,6 +3161,24 @@
         </is>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" t="inlineStr"/>
+      <c r="B329" t="inlineStr"/>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>0 / 1 ( 0.0 )</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr"/>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>0 / 1 ( 0.0 )</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ocr_test/1226/태국어_전처리_with_result_updated.xlsx
+++ b/ocr_test/1226/태국어_전처리_with_result_updated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C330"/>
+  <dimension ref="A1:C333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ยตยำลยลยลยลยลิรยลยลยงยัล</t>
+          <t>ย้ำลยำ้ยล้ย้รยล้ลยรงย</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3179,6 +3179,33 @@
         </is>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" t="inlineStr"/>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>0 / 1 ( 0.0 )</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr"/>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>0 / 1 ( 0.0 )</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr"/>
+      <c r="B333" t="inlineStr"/>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>0 / 1 ( 0.0 )</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
